--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.004</v>
+        <v>-7.101999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -485,13 +485,13 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.446</v>
+        <v>-12.771</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.132</v>
+        <v>16.428</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.332</v>
+        <v>17.417</v>
       </c>
     </row>
     <row r="13">
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.718</v>
+        <v>-12.509</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.794</v>
+        <v>-13.028</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.988</v>
+        <v>-8.231</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.168</v>
+        <v>-12.711</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.016</v>
+        <v>-12.446</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -845,10 +845,10 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.74</v>
+        <v>-7.653999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>16.358</v>
+        <v>16.942</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.524</v>
+        <v>-11.675</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.415999999999999</v>
+        <v>-7.271000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>16.67</v>
+        <v>16.825</v>
       </c>
     </row>
     <row r="26">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.992</v>
+        <v>-12.429</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.15</v>
+        <v>-8.045</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.054</v>
+        <v>-12.061</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.491999999999999</v>
+        <v>-7.644</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.214</v>
+        <v>-8.278000000000002</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.476000000000001</v>
+        <v>-7.709999999999999</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.478</v>
+        <v>-12.527</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.67</v>
+        <v>16.484</v>
       </c>
     </row>
     <row r="42">
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.776</v>
+        <v>-8.193000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.112</v>
+        <v>-7.214</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.418</v>
+        <v>16.516</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.396000000000001</v>
+        <v>-8.25</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.38</v>
+        <v>-7.328999999999999</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1335,13 +1335,13 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.698</v>
+        <v>-11.832</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>17.206</v>
+        <v>17.052</v>
       </c>
     </row>
     <row r="54">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.308</v>
+        <v>-8.137</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,10 +1389,10 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.052</v>
+        <v>-7.914</v>
       </c>
       <c r="E56" t="n">
-        <v>17.618</v>
+        <v>16.942</v>
       </c>
     </row>
     <row r="57">
@@ -1403,13 +1403,13 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.672</v>
+        <v>-13.401</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.790000000000001</v>
+        <v>-8.537000000000003</v>
       </c>
       <c r="E57" t="n">
-        <v>16.476</v>
+        <v>16.737</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.614</v>
+        <v>16.583</v>
       </c>
     </row>
     <row r="59">
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.594</v>
+        <v>-12.621</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1457,7 +1457,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-8.352</v>
+        <v>-8.391999999999999</v>
       </c>
       <c r="E60" t="n">
         <v>16.4</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.548</v>
+        <v>16.628</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.332</v>
+        <v>17.577</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.386</v>
+        <v>17.429</v>
       </c>
     </row>
     <row r="65">
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.166</v>
+        <v>-12.273</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.366</v>
+        <v>-10.627</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.332</v>
+        <v>17.464</v>
       </c>
     </row>
     <row r="71">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.89</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="73">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.858000000000001</v>
+        <v>-8.004000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.058000000000002</v>
+        <v>-7.952999999999999</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-10.972</v>
+        <v>-12.1</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.08</v>
+        <v>-13.392</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>17.034</v>
+        <v>16.444</v>
       </c>
     </row>
     <row r="87">
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.116000000000001</v>
+        <v>-7.255000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>17.698</v>
+        <v>17.523</v>
       </c>
     </row>
     <row r="90">
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.308</v>
+        <v>-7.442</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.804</v>
+        <v>-11.04</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.012</v>
+        <v>-6.873</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.054</v>
+        <v>-11.744</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.308</v>
+        <v>16.225</v>
       </c>
     </row>
     <row r="99">
@@ -2134,13 +2134,13 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.918</v>
+        <v>-11.614</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.726</v>
+        <v>16.729</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.502</v>
+        <v>16.574</v>
       </c>
     </row>
   </sheetData>
